--- a/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/angle/60/3_fold/96.xlsx
+++ b/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/angle/60/3_fold/96.xlsx
@@ -482,10 +482,10 @@
         <v>-10.69238170625404</v>
       </c>
       <c r="F2" t="n">
-        <v>-4.009965597414319</v>
+        <v>-4.009271705363708</v>
       </c>
       <c r="G2" t="n">
-        <v>-6.805538838602403</v>
+        <v>-6.806455299801324</v>
       </c>
     </row>
     <row r="3">
@@ -505,10 +505,10 @@
         <v>-11.05048237358093</v>
       </c>
       <c r="F3" t="n">
-        <v>-4.051271812879965</v>
+        <v>-4.050446997800936</v>
       </c>
       <c r="G3" t="n">
-        <v>-6.810369898351</v>
+        <v>-6.811168528824346</v>
       </c>
     </row>
     <row r="4">
@@ -525,13 +525,13 @@
         <v>-14.03686087405346</v>
       </c>
       <c r="E4" t="n">
-        <v>-11.88351941879428</v>
+        <v>-11.88349323418859</v>
       </c>
       <c r="F4" t="n">
-        <v>-3.804180781348069</v>
+        <v>-3.803460704691774</v>
       </c>
       <c r="G4" t="n">
-        <v>-6.643717975478669</v>
+        <v>-6.644516605952014</v>
       </c>
     </row>
     <row r="5">
@@ -548,13 +548,13 @@
         <v>-12.50687584637621</v>
       </c>
       <c r="E5" t="n">
-        <v>-12.73776599461122</v>
+        <v>-12.73783145612543</v>
       </c>
       <c r="F5" t="n">
-        <v>-3.891244595245547</v>
+        <v>-3.890315041743785</v>
       </c>
       <c r="G5" t="n">
-        <v>-6.989092924443402</v>
+        <v>-6.990009385642323</v>
       </c>
     </row>
     <row r="6">
@@ -571,13 +571,13 @@
         <v>-10.99834536215737</v>
       </c>
       <c r="E6" t="n">
-        <v>-13.45362692939112</v>
+        <v>-13.45378403702522</v>
       </c>
       <c r="F6" t="n">
-        <v>-3.64565917854045</v>
+        <v>-3.644755809644371</v>
       </c>
       <c r="G6" t="n">
-        <v>-6.548275087762486</v>
+        <v>-6.54906062593299</v>
       </c>
     </row>
     <row r="7">
@@ -594,13 +594,13 @@
         <v>-9.563825773086116</v>
       </c>
       <c r="E7" t="n">
-        <v>-14.144507750349</v>
+        <v>-14.14467795028594</v>
       </c>
       <c r="F7" t="n">
-        <v>-3.699115051043217</v>
+        <v>-3.698106943724404</v>
       </c>
       <c r="G7" t="n">
-        <v>-6.720268670194241</v>
+        <v>-6.721041116061903</v>
       </c>
     </row>
     <row r="8">
@@ -617,13 +617,13 @@
         <v>-8.19022916856159</v>
       </c>
       <c r="E8" t="n">
-        <v>-14.76201930618185</v>
+        <v>-14.76229424454153</v>
       </c>
       <c r="F8" t="n">
-        <v>-3.523704377569771</v>
+        <v>-3.522814100976534</v>
       </c>
       <c r="G8" t="n">
-        <v>-6.404089556566556</v>
+        <v>-6.404613248680226</v>
       </c>
     </row>
     <row r="9">
@@ -640,13 +640,13 @@
         <v>-6.864560036400107</v>
       </c>
       <c r="E9" t="n">
-        <v>-15.6754430908434</v>
+        <v>-15.67574421380876</v>
       </c>
       <c r="F9" t="n">
-        <v>-3.367120435582728</v>
+        <v>-3.366190882080965</v>
       </c>
       <c r="G9" t="n">
-        <v>-6.185382637595523</v>
+        <v>-6.185605206743832</v>
       </c>
     </row>
     <row r="10">
@@ -663,13 +663,13 @@
         <v>-5.557955835430659</v>
       </c>
       <c r="E10" t="n">
-        <v>-16.32717792630452</v>
+        <v>-16.32747904926988</v>
       </c>
       <c r="F10" t="n">
-        <v>-3.355900332047368</v>
+        <v>-3.354905317031397</v>
       </c>
       <c r="G10" t="n">
-        <v>-5.752171428865648</v>
+        <v>-5.752459459528167</v>
       </c>
     </row>
     <row r="11">
@@ -686,13 +686,13 @@
         <v>-4.250397231076668</v>
       </c>
       <c r="E11" t="n">
-        <v>-16.86624040350975</v>
+        <v>-16.86675100332058</v>
       </c>
       <c r="F11" t="n">
-        <v>-3.210772155046835</v>
+        <v>-3.209855693847914</v>
       </c>
       <c r="G11" t="n">
-        <v>-5.52022819172163</v>
+        <v>-5.520555499292673</v>
       </c>
     </row>
     <row r="12">
@@ -709,13 +709,13 @@
         <v>-2.929100459254693</v>
       </c>
       <c r="E12" t="n">
-        <v>-17.48929000344465</v>
+        <v>-17.48973514174127</v>
       </c>
       <c r="F12" t="n">
-        <v>-3.334154017027261</v>
+        <v>-3.333394663462441</v>
       </c>
       <c r="G12" t="n">
-        <v>-4.924057089520791</v>
+        <v>-4.924410581697519</v>
       </c>
     </row>
     <row r="13">
@@ -732,13 +732,13 @@
         <v>-1.594264661444067</v>
       </c>
       <c r="E13" t="n">
-        <v>-18.38298368772372</v>
+        <v>-18.38337645680897</v>
       </c>
       <c r="F13" t="n">
-        <v>-3.112187114648637</v>
+        <v>-3.111414668780976</v>
       </c>
       <c r="G13" t="n">
-        <v>-4.277297329139524</v>
+        <v>-4.277598452104884</v>
       </c>
     </row>
     <row r="14">
@@ -755,13 +755,13 @@
         <v>-0.2669410013711464</v>
       </c>
       <c r="E14" t="n">
-        <v>-19.10988143379919</v>
+        <v>-19.1101040029475</v>
       </c>
       <c r="F14" t="n">
-        <v>-2.995377588694757</v>
+        <v>-2.994592050524254</v>
       </c>
       <c r="G14" t="n">
-        <v>-3.72173855035372</v>
+        <v>-3.722288427073072</v>
       </c>
     </row>
     <row r="15">
@@ -778,13 +778,13 @@
         <v>1.029835027825899</v>
       </c>
       <c r="E15" t="n">
-        <v>-19.8750087041725</v>
+        <v>-19.87540147325775</v>
       </c>
       <c r="F15" t="n">
-        <v>-2.920934754736703</v>
+        <v>-2.920109939657674</v>
       </c>
       <c r="G15" t="n">
-        <v>-3.124232033263025</v>
+        <v>-3.124755725376695</v>
       </c>
     </row>
     <row r="16">
@@ -801,13 +801,13 @@
         <v>2.264859715853984</v>
       </c>
       <c r="E16" t="n">
-        <v>-20.73627275431261</v>
+        <v>-20.7368357233348</v>
       </c>
       <c r="F16" t="n">
-        <v>-2.911678496627603</v>
+        <v>-2.910722758520157</v>
       </c>
       <c r="G16" t="n">
-        <v>-2.523125132890856</v>
+        <v>-2.52391067106136</v>
       </c>
     </row>
     <row r="17">
@@ -824,13 +824,13 @@
         <v>3.402541589783212</v>
       </c>
       <c r="E17" t="n">
-        <v>-21.45082445880833</v>
+        <v>-21.4514397970419</v>
       </c>
       <c r="F17" t="n">
-        <v>-2.832456972132318</v>
+        <v>-2.831501234024872</v>
       </c>
       <c r="G17" t="n">
-        <v>-2.102508719494723</v>
+        <v>-2.103294257665226</v>
       </c>
     </row>
     <row r="18">
@@ -847,13 +847,13 @@
         <v>4.395329913349658</v>
       </c>
       <c r="E18" t="n">
-        <v>-22.35965284517243</v>
+        <v>-22.3603336449202</v>
       </c>
       <c r="F18" t="n">
-        <v>-2.736176177034265</v>
+        <v>-2.735181162018294</v>
       </c>
       <c r="G18" t="n">
-        <v>-1.87303992758779</v>
+        <v>-1.873655265821351</v>
       </c>
     </row>
     <row r="19">
@@ -870,13 +870,13 @@
         <v>5.194221822797597</v>
       </c>
       <c r="E19" t="n">
-        <v>-23.20288879429948</v>
+        <v>-23.20359577865294</v>
       </c>
       <c r="F19" t="n">
-        <v>-2.750577710160163</v>
+        <v>-2.749661248961243</v>
       </c>
       <c r="G19" t="n">
-        <v>-1.406626638851299</v>
+        <v>-1.407490730838853</v>
       </c>
     </row>
     <row r="20">
@@ -893,13 +893,13 @@
         <v>5.754710927279181</v>
       </c>
       <c r="E20" t="n">
-        <v>-24.00178111370161</v>
+        <v>-24.00243572884369</v>
       </c>
       <c r="F20" t="n">
-        <v>-2.528754823112799</v>
+        <v>-2.527877638822403</v>
       </c>
       <c r="G20" t="n">
-        <v>-1.168124157983575</v>
+        <v>-1.168831142337029</v>
       </c>
     </row>
     <row r="21">
@@ -916,13 +916,13 @@
         <v>6.047478557093759</v>
       </c>
       <c r="E21" t="n">
-        <v>-24.45429037682019</v>
+        <v>-24.45502354577932</v>
       </c>
       <c r="F21" t="n">
-        <v>-2.369277482197734</v>
+        <v>-2.368439574815863</v>
       </c>
       <c r="G21" t="n">
-        <v>-0.7777771487575126</v>
+        <v>-0.7784972254138075</v>
       </c>
     </row>
     <row r="22">
@@ -939,13 +939,13 @@
         <v>6.063439698573745</v>
       </c>
       <c r="E22" t="n">
-        <v>-25.11691800824563</v>
+        <v>-25.11763808490192</v>
       </c>
       <c r="F22" t="n">
-        <v>-2.161489543796699</v>
+        <v>-2.160769467140404</v>
       </c>
       <c r="G22" t="n">
-        <v>-0.6235629135848213</v>
+        <v>-0.6239556826700731</v>
       </c>
     </row>
     <row r="23">
@@ -962,13 +962,13 @@
         <v>5.817289327509925</v>
       </c>
       <c r="E23" t="n">
-        <v>-25.68588330514136</v>
+        <v>-25.68659028949481</v>
       </c>
       <c r="F23" t="n">
-        <v>-2.156684668653785</v>
+        <v>-2.155990776603174</v>
       </c>
       <c r="G23" t="n">
-        <v>-0.2528019894099807</v>
+        <v>-0.2534042353407001</v>
       </c>
     </row>
     <row r="24">
@@ -985,13 +985,13 @@
         <v>5.346357571039627</v>
       </c>
       <c r="E24" t="n">
-        <v>-26.12408268125393</v>
+        <v>-26.12477657330454</v>
       </c>
       <c r="F24" t="n">
-        <v>-2.104407103406774</v>
+        <v>-2.103817949778896</v>
       </c>
       <c r="G24" t="n">
-        <v>-0.292982266831238</v>
+        <v>-0.2934928666420654</v>
       </c>
     </row>
     <row r="25">
@@ -1008,13 +1008,13 @@
         <v>4.705383248154875</v>
       </c>
       <c r="E25" t="n">
-        <v>-26.40019934818593</v>
+        <v>-26.40090633253939</v>
       </c>
       <c r="F25" t="n">
-        <v>-1.756780278353263</v>
+        <v>-1.756217309331069</v>
       </c>
       <c r="G25" t="n">
-        <v>-0.2722964283413108</v>
+        <v>-0.2727415666379295</v>
       </c>
     </row>
     <row r="26">
@@ -1031,13 +1031,13 @@
         <v>3.959372856559464</v>
       </c>
       <c r="E26" t="n">
-        <v>-26.31852956305924</v>
+        <v>-26.31927582432122</v>
       </c>
       <c r="F26" t="n">
-        <v>-1.658941499217044</v>
+        <v>-1.658496360920425</v>
       </c>
       <c r="G26" t="n">
-        <v>-0.4316952154393257</v>
+        <v>-0.4321272614331027</v>
       </c>
     </row>
     <row r="27">
@@ -1054,13 +1054,13 @@
         <v>3.175941217342912</v>
       </c>
       <c r="E27" t="n">
-        <v>-26.24496391339159</v>
+        <v>-26.24595892840756</v>
       </c>
       <c r="F27" t="n">
-        <v>-1.733292687055206</v>
+        <v>-1.732873733364271</v>
       </c>
       <c r="G27" t="n">
-        <v>-0.3862387399728528</v>
+        <v>-0.3865005860296873</v>
       </c>
     </row>
     <row r="28">
@@ -1077,13 +1077,13 @@
         <v>2.416124484015943</v>
       </c>
       <c r="E28" t="n">
-        <v>-26.40825111443359</v>
+        <v>-26.40908902181546</v>
       </c>
       <c r="F28" t="n">
-        <v>-1.450263284222772</v>
+        <v>-1.449844330531837</v>
       </c>
       <c r="G28" t="n">
-        <v>-0.7204066777050689</v>
+        <v>-0.7206161545505366</v>
       </c>
     </row>
     <row r="29">
@@ -1100,13 +1100,13 @@
         <v>1.726953106458662</v>
       </c>
       <c r="E29" t="n">
-        <v>-26.3284928055218</v>
+        <v>-26.32951400514345</v>
       </c>
       <c r="F29" t="n">
-        <v>-1.363160193416769</v>
+        <v>-1.362845978148567</v>
       </c>
       <c r="G29" t="n">
-        <v>-0.7916549897697422</v>
+        <v>-0.791812097403843</v>
       </c>
     </row>
     <row r="30">
@@ -1123,13 +1123,13 @@
         <v>1.136858622636632</v>
       </c>
       <c r="E30" t="n">
-        <v>-26.13911264491623</v>
+        <v>-26.14002910611515</v>
       </c>
       <c r="F30" t="n">
-        <v>-1.44289231772288</v>
+        <v>-1.442578102454679</v>
       </c>
       <c r="G30" t="n">
-        <v>-0.9323055991984054</v>
+        <v>-0.9324103376211392</v>
       </c>
     </row>
     <row r="31">
@@ -1146,13 +1146,13 @@
         <v>0.6608613296998535</v>
       </c>
       <c r="E31" t="n">
-        <v>-25.80106938554286</v>
+        <v>-25.80194656983326</v>
       </c>
       <c r="F31" t="n">
-        <v>-1.356142719093604</v>
+        <v>-1.355854688431085</v>
       </c>
       <c r="G31" t="n">
-        <v>-1.413788128505723</v>
+        <v>-1.413827405414249</v>
       </c>
     </row>
     <row r="32">
@@ -1169,13 +1169,13 @@
         <v>0.2947374899562092</v>
       </c>
       <c r="E32" t="n">
-        <v>-25.82024960920599</v>
+        <v>-25.82124462422196</v>
       </c>
       <c r="F32" t="n">
-        <v>-1.189647903855373</v>
+        <v>-1.189412242404222</v>
       </c>
       <c r="G32" t="n">
-        <v>-1.710171680236718</v>
+        <v>-1.710341880173661</v>
       </c>
     </row>
     <row r="33">
@@ -1192,13 +1192,13 @@
         <v>0.02198661496602301</v>
       </c>
       <c r="E33" t="n">
-        <v>-25.46851180106018</v>
+        <v>-25.46945444686478</v>
       </c>
       <c r="F33" t="n">
-        <v>-1.161433991231453</v>
+        <v>-1.161237606688827</v>
       </c>
       <c r="G33" t="n">
-        <v>-2.212628078696481</v>
+        <v>-2.212837555541949</v>
       </c>
     </row>
     <row r="34">
@@ -1215,13 +1215,13 @@
         <v>-0.1846191226347209</v>
       </c>
       <c r="E34" t="n">
-        <v>-24.91474666776369</v>
+        <v>-24.91550602132851</v>
       </c>
       <c r="F34" t="n">
-        <v>-1.183507613822603</v>
+        <v>-1.183376690794186</v>
       </c>
       <c r="G34" t="n">
-        <v>-2.315533579032448</v>
+        <v>-2.315677594363707</v>
       </c>
     </row>
     <row r="35">
@@ -1238,13 +1238,13 @@
         <v>-0.3525456969828841</v>
       </c>
       <c r="E35" t="n">
-        <v>-24.50330795865961</v>
+        <v>-24.50417205064716</v>
       </c>
       <c r="F35" t="n">
-        <v>-1.351442582373424</v>
+        <v>-1.35133784395069</v>
       </c>
       <c r="G35" t="n">
-        <v>-2.522627625382871</v>
+        <v>-2.522640717685713</v>
       </c>
     </row>
     <row r="36">
@@ -1261,13 +1261,13 @@
         <v>-0.5092057477561811</v>
       </c>
       <c r="E36" t="n">
-        <v>-23.852109907615</v>
+        <v>-23.8528954457855</v>
       </c>
       <c r="F36" t="n">
-        <v>-1.350539213477345</v>
+        <v>-1.350408290448927</v>
       </c>
       <c r="G36" t="n">
-        <v>-2.710292694316172</v>
+        <v>-2.710135586682072</v>
       </c>
     </row>
     <row r="37">
@@ -1284,13 +1284,13 @@
         <v>-0.6743195247966904</v>
       </c>
       <c r="E37" t="n">
-        <v>-23.090596112826</v>
+        <v>-23.09132928178514</v>
       </c>
       <c r="F37" t="n">
-        <v>-1.332445650950079</v>
+        <v>-1.332380189435871</v>
       </c>
       <c r="G37" t="n">
-        <v>-2.846740674532641</v>
+        <v>-2.846766859138325</v>
       </c>
     </row>
     <row r="38">
@@ -1307,13 +1307,13 @@
         <v>-0.8577895314416863</v>
       </c>
       <c r="E38" t="n">
-        <v>-22.70525036328548</v>
+        <v>-22.70587879382188</v>
       </c>
       <c r="F38" t="n">
-        <v>-1.407569284655903</v>
+        <v>-1.40746454623317</v>
       </c>
       <c r="G38" t="n">
-        <v>-3.1609035735227</v>
+        <v>-3.161021404248276</v>
       </c>
     </row>
     <row r="39">
@@ -1330,13 +1330,13 @@
         <v>-1.058177745833929</v>
       </c>
       <c r="E39" t="n">
-        <v>-22.0737693203205</v>
+        <v>-22.0746465046109</v>
       </c>
       <c r="F39" t="n">
-        <v>-1.316734887540008</v>
+        <v>-1.316538502997382</v>
       </c>
       <c r="G39" t="n">
-        <v>-3.39034618082395</v>
+        <v>-3.390490196155208</v>
       </c>
     </row>
     <row r="40">
@@ -1353,13 +1353,13 @@
         <v>-1.268629521275655</v>
       </c>
       <c r="E40" t="n">
-        <v>-21.5857013626838</v>
+        <v>-21.58657854697419</v>
       </c>
       <c r="F40" t="n">
-        <v>-1.484342548519785</v>
+        <v>-1.484133071674318</v>
       </c>
       <c r="G40" t="n">
-        <v>-3.621647895128724</v>
+        <v>-3.621805002762825</v>
       </c>
     </row>
     <row r="41">
@@ -1376,13 +1376,13 @@
         <v>-1.479709396634425</v>
       </c>
       <c r="E41" t="n">
-        <v>-21.11788719754324</v>
+        <v>-21.11829305893133</v>
       </c>
       <c r="F41" t="n">
-        <v>-1.394071120426084</v>
+        <v>-1.393743812855041</v>
       </c>
       <c r="G41" t="n">
-        <v>-3.623690294372033</v>
+        <v>-3.623808125097609</v>
       </c>
     </row>
     <row r="42">
@@ -1399,13 +1399,13 @@
         <v>-1.683142518923158</v>
       </c>
       <c r="E42" t="n">
-        <v>-20.30147737693889</v>
+        <v>-20.3022367305037</v>
       </c>
       <c r="F42" t="n">
-        <v>-1.118831637784477</v>
+        <v>-1.118451961002067</v>
       </c>
       <c r="G42" t="n">
-        <v>-3.736061529662568</v>
+        <v>-3.736257914205194</v>
       </c>
     </row>
     <row r="43">
@@ -1422,13 +1422,13 @@
         <v>-1.873970577717797</v>
       </c>
       <c r="E43" t="n">
-        <v>-19.47306191462867</v>
+        <v>-19.47353323753097</v>
       </c>
       <c r="F43" t="n">
-        <v>-1.127380911540124</v>
+        <v>-1.127027419363397</v>
       </c>
       <c r="G43" t="n">
-        <v>-3.874460263002454</v>
+        <v>-3.874630462939397</v>
       </c>
     </row>
     <row r="44">
@@ -1445,13 +1445,13 @@
         <v>-2.053816748493822</v>
       </c>
       <c r="E44" t="n">
-        <v>-19.04904150249369</v>
+        <v>-19.04953901000167</v>
       </c>
       <c r="F44" t="n">
-        <v>-1.146351658357785</v>
+        <v>-1.145945796969691</v>
       </c>
       <c r="G44" t="n">
-        <v>-4.101428425066618</v>
+        <v>-4.101637901912085</v>
       </c>
     </row>
     <row r="45">
@@ -1468,13 +1468,13 @@
         <v>-2.229370937168067</v>
       </c>
       <c r="E45" t="n">
-        <v>-18.55754336151245</v>
+        <v>-18.55790994599202</v>
       </c>
       <c r="F45" t="n">
-        <v>-1.136048016021346</v>
+        <v>-1.135655246936095</v>
       </c>
       <c r="G45" t="n">
-        <v>-4.212215491713303</v>
+        <v>-4.212346414741721</v>
       </c>
     </row>
     <row r="46">
@@ -1491,13 +1491,13 @@
         <v>-2.408649522671403</v>
       </c>
       <c r="E46" t="n">
-        <v>-18.09881525454405</v>
+        <v>-18.09899854678384</v>
       </c>
       <c r="F46" t="n">
-        <v>-1.100345306171959</v>
+        <v>-1.099952537086708</v>
       </c>
       <c r="G46" t="n">
-        <v>-4.344866704105672</v>
+        <v>-4.344840519499988</v>
       </c>
     </row>
     <row r="47">
@@ -1514,13 +1514,13 @@
         <v>-2.598797834494291</v>
       </c>
       <c r="E47" t="n">
-        <v>-17.34015558177455</v>
+        <v>-17.34046979704275</v>
       </c>
       <c r="F47" t="n">
-        <v>-1.191022595653754</v>
+        <v>-1.190564365054294</v>
       </c>
       <c r="G47" t="n">
-        <v>-4.654656773946594</v>
+        <v>-4.654748420066486</v>
       </c>
     </row>
     <row r="48">
@@ -1537,13 +1537,13 @@
         <v>-2.805738698342912</v>
       </c>
       <c r="E48" t="n">
-        <v>-16.49674943271056</v>
+        <v>-16.49712910949297</v>
       </c>
       <c r="F48" t="n">
-        <v>-1.117443853683254</v>
+        <v>-1.117011807689477</v>
       </c>
       <c r="G48" t="n">
-        <v>-4.601763870466021</v>
+        <v>-4.601724593557496</v>
       </c>
     </row>
     <row r="49">
@@ -1560,13 +1560,13 @@
         <v>-3.03393490075346</v>
       </c>
       <c r="E49" t="n">
-        <v>-15.85825091542242</v>
+        <v>-15.85835565384515</v>
       </c>
       <c r="F49" t="n">
-        <v>-1.059719890454083</v>
+        <v>-1.059117644523364</v>
       </c>
       <c r="G49" t="n">
-        <v>-4.834152245906659</v>
+        <v>-4.834217707420867</v>
       </c>
     </row>
     <row r="50">
@@ -1583,10 +1583,10 @@
         <v>-3.283469188382708</v>
       </c>
       <c r="E50" t="n">
-        <v>-14.97996687158807</v>
+        <v>-14.98026799455343</v>
       </c>
       <c r="F50" t="n">
-        <v>-1.020312058900488</v>
+        <v>-1.019814551392503</v>
       </c>
       <c r="G50" t="n">
         <v>-4.954850185804531</v>
@@ -1606,13 +1606,13 @@
         <v>-3.552742462513999</v>
       </c>
       <c r="E51" t="n">
-        <v>-14.18373228966281</v>
+        <v>-14.18395485881112</v>
       </c>
       <c r="F51" t="n">
-        <v>-1.021437996944877</v>
+        <v>-1.020953581739733</v>
       </c>
       <c r="G51" t="n">
-        <v>-5.139713501929704</v>
+        <v>-5.139778963443912</v>
       </c>
     </row>
     <row r="52">
@@ -1629,13 +1629,13 @@
         <v>-3.839340749062048</v>
       </c>
       <c r="E52" t="n">
-        <v>-13.47577910579932</v>
+        <v>-13.47628970561014</v>
       </c>
       <c r="F52" t="n">
-        <v>-0.9667252633693032</v>
+        <v>-0.9662015712556342</v>
       </c>
       <c r="G52" t="n">
-        <v>-5.041416492194024</v>
+        <v>-5.041547415222441</v>
       </c>
     </row>
     <row r="53">
@@ -1652,13 +1652,13 @@
         <v>-4.144412130845939</v>
       </c>
       <c r="E53" t="n">
-        <v>-12.77581222666927</v>
+        <v>-12.77625736496589</v>
       </c>
       <c r="F53" t="n">
-        <v>-0.9603624041882244</v>
+        <v>-0.9597732505603467</v>
       </c>
       <c r="G53" t="n">
-        <v>-5.12079512432341</v>
+        <v>-5.120899862746143</v>
       </c>
     </row>
     <row r="54">
@@ -1675,13 +1675,13 @@
         <v>-4.467662055141096</v>
       </c>
       <c r="E54" t="n">
-        <v>-12.40960742388335</v>
+        <v>-12.40998710066576</v>
       </c>
       <c r="F54" t="n">
-        <v>-1.158016900189763</v>
+        <v>-1.157440838864727</v>
       </c>
       <c r="G54" t="n">
-        <v>-5.291885337859085</v>
+        <v>-5.292016260887503</v>
       </c>
     </row>
     <row r="55">
@@ -1698,13 +1698,13 @@
         <v>-4.809467621354652</v>
       </c>
       <c r="E55" t="n">
-        <v>-11.72868984538802</v>
+        <v>-11.72893859914202</v>
       </c>
       <c r="F55" t="n">
-        <v>-1.246232836737313</v>
+        <v>-1.245617498503752</v>
       </c>
       <c r="G55" t="n">
-        <v>-5.770173345273022</v>
+        <v>-5.770264991392914</v>
       </c>
     </row>
     <row r="56">
@@ -1721,13 +1721,13 @@
         <v>-5.169467284634044</v>
       </c>
       <c r="E56" t="n">
-        <v>-11.30614886347416</v>
+        <v>-11.30641070953099</v>
       </c>
       <c r="F56" t="n">
-        <v>-1.259220401156305</v>
+        <v>-1.258565786014219</v>
       </c>
       <c r="G56" t="n">
-        <v>-5.902916203785283</v>
+        <v>-5.902994757602333</v>
       </c>
     </row>
     <row r="57">
@@ -1744,13 +1744,13 @@
         <v>-5.54909348777309</v>
       </c>
       <c r="E57" t="n">
-        <v>-10.53133328899797</v>
+        <v>-10.53155585814627</v>
       </c>
       <c r="F57" t="n">
-        <v>-1.247856282289687</v>
+        <v>-1.247201667147601</v>
       </c>
       <c r="G57" t="n">
-        <v>-6.35988994217289</v>
+        <v>-6.360007772898465</v>
       </c>
     </row>
     <row r="58">
@@ -1767,13 +1767,13 @@
         <v>-5.944552652494003</v>
       </c>
       <c r="E58" t="n">
-        <v>-10.0652734924382</v>
+        <v>-10.06570553843198</v>
       </c>
       <c r="F58" t="n">
-        <v>-1.448430361824931</v>
+        <v>-1.447710285168635</v>
       </c>
       <c r="G58" t="n">
-        <v>-6.206395783656493</v>
+        <v>-6.206618352804802</v>
       </c>
     </row>
     <row r="59">
@@ -1790,13 +1790,13 @@
         <v>-6.348297597694278</v>
       </c>
       <c r="E59" t="n">
-        <v>-9.494553826961679</v>
+        <v>-9.494841857624197</v>
       </c>
       <c r="F59" t="n">
-        <v>-1.438244550214067</v>
+        <v>-1.437550658163456</v>
       </c>
       <c r="G59" t="n">
-        <v>-6.431714315562599</v>
+        <v>-6.431963069316591</v>
       </c>
     </row>
     <row r="60">
@@ -1813,13 +1813,13 @@
         <v>-6.750806677414227</v>
       </c>
       <c r="E60" t="n">
-        <v>-9.207059948860216</v>
+        <v>-9.207400348734101</v>
       </c>
       <c r="F60" t="n">
-        <v>-1.517911213005971</v>
+        <v>-1.517256597863884</v>
       </c>
       <c r="G60" t="n">
-        <v>-6.315232097179762</v>
+        <v>-6.315559404750805</v>
       </c>
     </row>
     <row r="61">
@@ -1836,13 +1836,13 @@
         <v>-7.144949952674735</v>
       </c>
       <c r="E61" t="n">
-        <v>-8.579702981290387</v>
+        <v>-8.580252858009738</v>
       </c>
       <c r="F61" t="n">
-        <v>-1.598350321665536</v>
+        <v>-1.597590968100716</v>
       </c>
       <c r="G61" t="n">
-        <v>-6.720766177702227</v>
+        <v>-6.720884008427802</v>
       </c>
     </row>
     <row r="62">
@@ -1859,13 +1859,13 @@
         <v>-7.522666098602259</v>
       </c>
       <c r="E62" t="n">
-        <v>-8.006914731964871</v>
+        <v>-8.007490793289907</v>
       </c>
       <c r="F62" t="n">
-        <v>-1.516785274961582</v>
+        <v>-1.516117567516654</v>
       </c>
       <c r="G62" t="n">
-        <v>-6.588874318874678</v>
+        <v>-6.589070703417304</v>
       </c>
     </row>
     <row r="63">
@@ -1882,13 +1882,13 @@
         <v>-7.874733872389169</v>
       </c>
       <c r="E63" t="n">
-        <v>-7.543198457613775</v>
+        <v>-7.543722149727444</v>
       </c>
       <c r="F63" t="n">
-        <v>-1.503666787514173</v>
+        <v>-1.502868157040828</v>
       </c>
       <c r="G63" t="n">
-        <v>-6.656299678509567</v>
+        <v>-6.656561524566402</v>
       </c>
     </row>
     <row r="64">
@@ -1905,13 +1905,13 @@
         <v>-8.191950276681387</v>
       </c>
       <c r="E64" t="n">
-        <v>-7.129664980055015</v>
+        <v>-7.13038505671131</v>
       </c>
       <c r="F64" t="n">
-        <v>-1.646268150066253</v>
+        <v>-1.645508796501433</v>
       </c>
       <c r="G64" t="n">
-        <v>-6.831710351983014</v>
+        <v>-6.831932921131322</v>
       </c>
     </row>
     <row r="65">
@@ -1928,13 +1928,13 @@
         <v>-8.470639245199967</v>
       </c>
       <c r="E65" t="n">
-        <v>-6.699766123944098</v>
+        <v>-6.700446923691868</v>
       </c>
       <c r="F65" t="n">
-        <v>-1.531199900390323</v>
+        <v>-1.530479823734028</v>
       </c>
       <c r="G65" t="n">
-        <v>-7.005746333658078</v>
+        <v>-7.00575942596092</v>
       </c>
     </row>
     <row r="66">
@@ -1951,13 +1951,13 @@
         <v>-8.70944525754566</v>
       </c>
       <c r="E66" t="n">
-        <v>-6.457846552034684</v>
+        <v>-6.458448797965403</v>
       </c>
       <c r="F66" t="n">
-        <v>-1.691004548876431</v>
+        <v>-1.690323749128661</v>
       </c>
       <c r="G66" t="n">
-        <v>-7.038293798522609</v>
+        <v>-7.038385444642501</v>
       </c>
     </row>
     <row r="67">
@@ -1974,13 +1974,13 @@
         <v>-8.906078375952344</v>
       </c>
       <c r="E67" t="n">
-        <v>-6.325182247339473</v>
+        <v>-6.325902323995768</v>
       </c>
       <c r="F67" t="n">
-        <v>-1.682088690641216</v>
+        <v>-1.681420983196288</v>
       </c>
       <c r="G67" t="n">
-        <v>-7.094315762382355</v>
+        <v>-7.094485962319298</v>
       </c>
     </row>
     <row r="68">
@@ -1997,13 +1997,13 @@
         <v>-9.060486746113877</v>
       </c>
       <c r="E68" t="n">
-        <v>-6.050112964634809</v>
+        <v>-6.050846133593946</v>
       </c>
       <c r="F68" t="n">
-        <v>-1.615422684571147</v>
+        <v>-1.614925177063161</v>
       </c>
       <c r="G68" t="n">
-        <v>-7.049081856064191</v>
+        <v>-7.049121132972717</v>
       </c>
     </row>
     <row r="69">
@@ -2020,13 +2020,13 @@
         <v>-9.175028827427933</v>
       </c>
       <c r="E69" t="n">
-        <v>-5.955547261209022</v>
+        <v>-5.956332799379525</v>
       </c>
       <c r="F69" t="n">
-        <v>-1.894864796424948</v>
+        <v>-1.894288735099912</v>
       </c>
       <c r="G69" t="n">
-        <v>-7.082755258973111</v>
+        <v>-7.082742166670269</v>
       </c>
     </row>
     <row r="70">
@@ -2043,13 +2043,13 @@
         <v>-9.254935036037246</v>
       </c>
       <c r="E70" t="n">
-        <v>-5.855037652293091</v>
+        <v>-5.855927928886328</v>
       </c>
       <c r="F70" t="n">
-        <v>-1.844498707392827</v>
+        <v>-1.843975015279159</v>
       </c>
       <c r="G70" t="n">
-        <v>-6.82372404724956</v>
+        <v>-6.823750231855244</v>
       </c>
     </row>
     <row r="71">
@@ -2066,13 +2066,13 @@
         <v>-9.30224694512828</v>
       </c>
       <c r="E71" t="n">
-        <v>-5.593374887698353</v>
+        <v>-5.594317533502958</v>
       </c>
       <c r="F71" t="n">
-        <v>-1.858795502095992</v>
+        <v>-1.858311086890849</v>
       </c>
       <c r="G71" t="n">
-        <v>-6.727980036568018</v>
+        <v>-6.727927667356651</v>
       </c>
     </row>
     <row r="72">
@@ -2089,13 +2089,13 @@
         <v>-9.314898215450066</v>
       </c>
       <c r="E72" t="n">
-        <v>-5.684248561722774</v>
+        <v>-5.685322130555796</v>
       </c>
       <c r="F72" t="n">
-        <v>-1.939915410503327</v>
+        <v>-1.939430995298183</v>
       </c>
       <c r="G72" t="n">
-        <v>-6.54428193539576</v>
+        <v>-6.544164104670184</v>
       </c>
     </row>
     <row r="73">
@@ -2112,13 +2112,13 @@
         <v>-9.292281234952657</v>
       </c>
       <c r="E73" t="n">
-        <v>-5.756112212021009</v>
+        <v>-5.757198873156872</v>
       </c>
       <c r="F73" t="n">
-        <v>-2.02762074724005</v>
+        <v>-2.027149424337748</v>
       </c>
       <c r="G73" t="n">
-        <v>-6.378153704637097</v>
+        <v>-6.378048966214363</v>
       </c>
     </row>
     <row r="74">
@@ -2135,13 +2135,13 @@
         <v>-9.237574562355514</v>
       </c>
       <c r="E74" t="n">
-        <v>-5.957681306572223</v>
+        <v>-5.95871559849672</v>
       </c>
       <c r="F74" t="n">
-        <v>-1.888933983237646</v>
+        <v>-1.888462660335344</v>
       </c>
       <c r="G74" t="n">
-        <v>-6.274567404553361</v>
+        <v>-6.274279373890843</v>
       </c>
     </row>
     <row r="75">
@@ -2158,13 +2158,13 @@
         <v>-9.15299096269872</v>
       </c>
       <c r="E75" t="n">
-        <v>-6.110638680672109</v>
+        <v>-6.111751526413655</v>
       </c>
       <c r="F75" t="n">
-        <v>-2.148253225623714</v>
+        <v>-2.147912825749829</v>
       </c>
       <c r="G75" t="n">
-        <v>-6.130250950329014</v>
+        <v>-6.130002196575021</v>
       </c>
     </row>
     <row r="76">
@@ -2181,13 +2181,13 @@
         <v>-9.040071534169027</v>
       </c>
       <c r="E76" t="n">
-        <v>-6.589725318559391</v>
+        <v>-6.590864348906621</v>
       </c>
       <c r="F76" t="n">
-        <v>-2.12941340183447</v>
+        <v>-2.12895517123501</v>
       </c>
       <c r="G76" t="n">
-        <v>-5.893830145613125</v>
+        <v>-5.893476653436398</v>
       </c>
     </row>
     <row r="77">
@@ -2204,13 +2204,13 @@
         <v>-8.904485796402968</v>
       </c>
       <c r="E77" t="n">
-        <v>-7.051962162689371</v>
+        <v>-7.0529440854025</v>
       </c>
       <c r="F77" t="n">
-        <v>-2.181782613201374</v>
+        <v>-2.181350567207597</v>
       </c>
       <c r="G77" t="n">
-        <v>-5.949956847895605</v>
+        <v>-5.949668817233086</v>
       </c>
     </row>
     <row r="78">
@@ -2227,13 +2227,13 @@
         <v>-8.754972964957002</v>
       </c>
       <c r="E78" t="n">
-        <v>-7.536874875341221</v>
+        <v>-7.537869890357192</v>
       </c>
       <c r="F78" t="n">
-        <v>-2.132149693128391</v>
+        <v>-2.131665277923247</v>
       </c>
       <c r="G78" t="n">
-        <v>-5.577808139619541</v>
+        <v>-5.57749392435134</v>
       </c>
     </row>
     <row r="79">
@@ -2250,13 +2250,13 @@
         <v>-8.597890604190983</v>
       </c>
       <c r="E79" t="n">
-        <v>-7.932615913338075</v>
+        <v>-7.933519282234154</v>
       </c>
       <c r="F79" t="n">
-        <v>-2.167223972441375</v>
+        <v>-2.16688357256749</v>
       </c>
       <c r="G79" t="n">
-        <v>-5.41653715321516</v>
+        <v>-5.416222937946958</v>
       </c>
     </row>
     <row r="80">
@@ -2273,13 +2273,13 @@
         <v>-8.436224446047845</v>
       </c>
       <c r="E80" t="n">
-        <v>-8.311441696063419</v>
+        <v>-8.312423618776549</v>
       </c>
       <c r="F80" t="n">
-        <v>-2.43311555085399</v>
+        <v>-2.43273587407158</v>
       </c>
       <c r="G80" t="n">
-        <v>-5.023466944998018</v>
+        <v>-5.023192006638341</v>
       </c>
     </row>
     <row r="81">
@@ -2296,13 +2296,13 @@
         <v>-8.272552797050775</v>
       </c>
       <c r="E81" t="n">
-        <v>-9.217311221985288</v>
+        <v>-9.218188406275683</v>
       </c>
       <c r="F81" t="n">
-        <v>-2.357677701879964</v>
+        <v>-2.357258748189029</v>
       </c>
       <c r="G81" t="n">
-        <v>-5.017431393387982</v>
+        <v>-5.017051716605572</v>
       </c>
     </row>
     <row r="82">
@@ -2319,13 +2319,13 @@
         <v>-8.11034305022798</v>
       </c>
       <c r="E82" t="n">
-        <v>-9.951213350081083</v>
+        <v>-9.951972703645904</v>
       </c>
       <c r="F82" t="n">
-        <v>-2.447307607134421</v>
+        <v>-2.446875561140644</v>
       </c>
       <c r="G82" t="n">
-        <v>-4.847624225530795</v>
+        <v>-4.847257641051226</v>
       </c>
     </row>
     <row r="83">
@@ -2342,13 +2342,13 @@
         <v>-7.949748983189467</v>
       </c>
       <c r="E83" t="n">
-        <v>-10.70547400909576</v>
+        <v>-10.70615480884353</v>
       </c>
       <c r="F83" t="n">
-        <v>-2.514471120712475</v>
+        <v>-2.514261643867008</v>
       </c>
       <c r="G83" t="n">
-        <v>-4.521468777137715</v>
+        <v>-4.521062915749622</v>
       </c>
     </row>
     <row r="84">
@@ -2365,13 +2365,13 @@
         <v>-7.787413823669828</v>
       </c>
       <c r="E84" t="n">
-        <v>-11.84573503279305</v>
+        <v>-11.84646820175219</v>
       </c>
       <c r="F84" t="n">
-        <v>-2.595630306028335</v>
+        <v>-2.595329183062976</v>
       </c>
       <c r="G84" t="n">
-        <v>-4.415931723930561</v>
+        <v>-4.415512770239626</v>
       </c>
     </row>
     <row r="85">
@@ -2388,13 +2388,13 @@
         <v>-7.618639877603502</v>
       </c>
       <c r="E85" t="n">
-        <v>-12.65961803894896</v>
+        <v>-12.66031193099957</v>
       </c>
       <c r="F85" t="n">
-        <v>-2.738558976151459</v>
+        <v>-2.738257853186099</v>
       </c>
       <c r="G85" t="n">
-        <v>-4.051127797548706</v>
+        <v>-4.050643382343562</v>
       </c>
     </row>
     <row r="86">
@@ -2411,13 +2411,13 @@
         <v>-7.441779023269269</v>
       </c>
       <c r="E86" t="n">
-        <v>-13.69282330230945</v>
+        <v>-13.69358265587427</v>
       </c>
       <c r="F86" t="n">
-        <v>-2.834721940523937</v>
+        <v>-2.834447002164261</v>
       </c>
       <c r="G86" t="n">
-        <v>-3.734817760892604</v>
+        <v>-3.734477361018719</v>
       </c>
     </row>
     <row r="87">
@@ -2434,13 +2434,13 @@
         <v>-7.255839811647278</v>
       </c>
       <c r="E87" t="n">
-        <v>-14.6904960557575</v>
+        <v>-14.69124231701948</v>
       </c>
       <c r="F87" t="n">
-        <v>-2.869390358448828</v>
+        <v>-2.869141604694835</v>
       </c>
       <c r="G87" t="n">
-        <v>-3.284350897017335</v>
+        <v>-3.2839319433264</v>
       </c>
     </row>
     <row r="88">
@@ -2457,13 +2457,13 @@
         <v>-7.060178984849255</v>
       </c>
       <c r="E88" t="n">
-        <v>-16.05354879691244</v>
+        <v>-16.05413795054032</v>
       </c>
       <c r="F88" t="n">
-        <v>-2.774078393761062</v>
+        <v>-2.773698716978652</v>
       </c>
       <c r="G88" t="n">
-        <v>-3.034340281951734</v>
+        <v>-3.033934420563641</v>
       </c>
     </row>
     <row r="89">
@@ -2480,13 +2480,13 @@
         <v>-6.855110323883815</v>
       </c>
       <c r="E89" t="n">
-        <v>-17.47806989990929</v>
+        <v>-17.4787637919599</v>
       </c>
       <c r="F89" t="n">
-        <v>-3.014230504786843</v>
+        <v>-3.013994843335692</v>
       </c>
       <c r="G89" t="n">
-        <v>-2.766052812119084</v>
+        <v>-2.765738596850882</v>
       </c>
     </row>
     <row r="90">
@@ -2503,13 +2503,13 @@
         <v>-6.646042847247967</v>
       </c>
       <c r="E90" t="n">
-        <v>-18.94849261666923</v>
+        <v>-18.94916032411416</v>
       </c>
       <c r="F90" t="n">
-        <v>-3.211636247034389</v>
+        <v>-3.211348216371871</v>
       </c>
       <c r="G90" t="n">
-        <v>-2.641165335311859</v>
+        <v>-2.640916581557866</v>
       </c>
     </row>
     <row r="91">
@@ -2526,13 +2526,13 @@
         <v>-6.438873683054492</v>
       </c>
       <c r="E91" t="n">
-        <v>-20.57436024506898</v>
+        <v>-20.57488393718265</v>
       </c>
       <c r="F91" t="n">
-        <v>-3.42091670795938</v>
+        <v>-3.420523938874128</v>
       </c>
       <c r="G91" t="n">
-        <v>-2.702267112674194</v>
+        <v>-2.702136189645777</v>
       </c>
     </row>
     <row r="92">
@@ -2549,13 +2549,13 @@
         <v>-6.238179002330511</v>
       </c>
       <c r="E92" t="n">
-        <v>-22.05109345179863</v>
+        <v>-22.05166951312367</v>
       </c>
       <c r="F92" t="n">
-        <v>-3.433576964807329</v>
+        <v>-3.433393672567545</v>
       </c>
       <c r="G92" t="n">
-        <v>-2.591597876753084</v>
+        <v>-2.591362215301933</v>
       </c>
     </row>
     <row r="93">
@@ -2572,13 +2572,13 @@
         <v>-6.046868505398418</v>
       </c>
       <c r="E93" t="n">
-        <v>-24.04296949844168</v>
+        <v>-24.04354555976671</v>
       </c>
       <c r="F93" t="n">
-        <v>-3.643381117845989</v>
+        <v>-3.642896702640845</v>
       </c>
       <c r="G93" t="n">
-        <v>-2.563069748860963</v>
+        <v>-2.562886456621178</v>
       </c>
     </row>
     <row r="94">
@@ -2595,13 +2595,13 @@
         <v>-5.870773501955757</v>
       </c>
       <c r="E94" t="n">
-        <v>-26.21253427925263</v>
+        <v>-26.2130579713663</v>
       </c>
       <c r="F94" t="n">
-        <v>-3.448855682223623</v>
+        <v>-3.448436728532688</v>
       </c>
       <c r="G94" t="n">
-        <v>-2.720072644538942</v>
+        <v>-2.719836983087791</v>
       </c>
     </row>
     <row r="95">
@@ -2618,13 +2618,13 @@
         <v>-5.714693977033416</v>
       </c>
       <c r="E95" t="n">
-        <v>-28.38770256567984</v>
+        <v>-28.38826553470204</v>
       </c>
       <c r="F95" t="n">
-        <v>-3.950605096329933</v>
+        <v>-3.950081404216264</v>
       </c>
       <c r="G95" t="n">
-        <v>-2.941227824141378</v>
+        <v>-2.941123085718645</v>
       </c>
     </row>
     <row r="96">
@@ -2641,13 +2641,13 @@
         <v>-5.578176567567523</v>
       </c>
       <c r="E96" t="n">
-        <v>-30.43262862343756</v>
+        <v>-30.43332251548817</v>
       </c>
       <c r="F96" t="n">
-        <v>-3.93162125720943</v>
+        <v>-3.93108447279292</v>
       </c>
       <c r="G96" t="n">
-        <v>-3.274662592914458</v>
+        <v>-3.274557854491724</v>
       </c>
     </row>
     <row r="97">
@@ -2664,13 +2664,13 @@
         <v>-5.455472484311151</v>
       </c>
       <c r="E97" t="n">
-        <v>-32.70050350628703</v>
+        <v>-32.70128904445754</v>
       </c>
       <c r="F97" t="n">
-        <v>-4.087720783991331</v>
+        <v>-4.087314922603237</v>
       </c>
       <c r="G97" t="n">
-        <v>-3.358859192489598</v>
+        <v>-3.358754454066864</v>
       </c>
     </row>
     <row r="98">
@@ -2687,13 +2687,13 @@
         <v>-5.338733379287264</v>
       </c>
       <c r="E98" t="n">
-        <v>-35.20174868729028</v>
+        <v>-35.20242948703805</v>
       </c>
       <c r="F98" t="n">
-        <v>-4.365473988778549</v>
+        <v>-4.364963388967722</v>
       </c>
       <c r="G98" t="n">
-        <v>-3.783324742921199</v>
+        <v>-3.783311650618357</v>
       </c>
     </row>
     <row r="99">
@@ -2710,13 +2710,13 @@
         <v>-5.221619793363844</v>
       </c>
       <c r="E99" t="n">
-        <v>-37.60194747496107</v>
+        <v>-37.60260209010316</v>
       </c>
       <c r="F99" t="n">
-        <v>-4.222257287992908</v>
+        <v>-4.221864518907656</v>
       </c>
       <c r="G99" t="n">
-        <v>-4.174980982431435</v>
+        <v>-4.174836967100176</v>
       </c>
     </row>
     <row r="100">
@@ -2733,13 +2733,13 @@
         <v>-5.095325961162565</v>
       </c>
       <c r="E100" t="n">
-        <v>-40.22412625731334</v>
+        <v>-40.2247415955469</v>
       </c>
       <c r="F100" t="n">
-        <v>-4.341698366817974</v>
+        <v>-4.341253228521356</v>
       </c>
       <c r="G100" t="n">
-        <v>-4.425672397244806</v>
+        <v>-4.425541474216388</v>
       </c>
     </row>
     <row r="101">
@@ -2756,13 +2756,13 @@
         <v>-4.957705130316372</v>
       </c>
       <c r="E101" t="n">
-        <v>-42.66420419944003</v>
+        <v>-42.66478026076507</v>
       </c>
       <c r="F101" t="n">
-        <v>-4.496829063189587</v>
+        <v>-4.496383924892967</v>
       </c>
       <c r="G101" t="n">
-        <v>-4.935944900501079</v>
+        <v>-4.935735423655611</v>
       </c>
     </row>
     <row r="102">
@@ -2779,13 +2779,13 @@
         <v>-4.80623439925155</v>
       </c>
       <c r="E102" t="n">
-        <v>-45.03088669183601</v>
+        <v>-45.03152821467526</v>
       </c>
       <c r="F102" t="n">
-        <v>-4.58621021469005</v>
+        <v>-4.585791260999115</v>
       </c>
       <c r="G102" t="n">
-        <v>-5.141926101109955</v>
+        <v>-5.141860639595746</v>
       </c>
     </row>
   </sheetData>
